--- a/Votes/October 2021 Votes.xlsx
+++ b/Votes/October 2021 Votes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/Votes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB0E6E-847C-E945-AE0A-736DE6008E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC17DDA-A7B2-7444-A44B-E98A33503DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="29700" windowHeight="23780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="276">
   <si>
     <t>Article 1 Motion to Terminate Debate</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>Night 1</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1011,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1052,11 +1059,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,16 +1068,53 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{70D922D2-3232-8F46-862A-432A4523597E}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1323,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255:L255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1354,17 +1393,17 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>272</v>
       </c>
     </row>
@@ -1424,9 +1463,9 @@
       <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18" t="s">
         <v>271</v>
       </c>
     </row>
@@ -1444,9 +1483,9 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1476,13 +1515,13 @@
       <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="J6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1514,13 +1553,13 @@
       <c r="I7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="J7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1552,13 +1591,13 @@
       <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="23" t="s">
+      <c r="J8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1590,13 +1629,13 @@
       <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="J9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1626,13 +1665,13 @@
       <c r="I10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="J10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1664,13 +1703,13 @@
       <c r="I11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="J11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1702,13 +1741,13 @@
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="J12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1740,13 +1779,13 @@
       <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="J13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1778,13 +1817,13 @@
       <c r="I14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
@@ -1812,13 +1851,13 @@
       <c r="I15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="23" t="s">
+      <c r="J15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1850,13 +1889,13 @@
       <c r="I16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1888,13 +1927,13 @@
       <c r="I17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="23" t="s">
+      <c r="J17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1926,9 +1965,9 @@
       <c r="I18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="23" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1960,13 +1999,13 @@
       <c r="I19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="24" t="s">
+      <c r="J19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1998,13 +2037,13 @@
       <c r="I20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="23" t="s">
+      <c r="J20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2036,13 +2075,13 @@
       <c r="I21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="23" t="s">
+      <c r="J21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2074,13 +2113,13 @@
       <c r="I22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="23" t="s">
+      <c r="J22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2110,13 +2149,13 @@
       <c r="I23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="23" t="s">
+      <c r="J23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2148,9 +2187,9 @@
       <c r="I24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -2180,9 +2219,9 @@
       <c r="I25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
@@ -2210,13 +2249,13 @@
       <c r="I26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="23" t="s">
+      <c r="J26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2248,13 +2287,13 @@
       <c r="I27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="23" t="s">
+      <c r="J27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2286,13 +2325,13 @@
       <c r="I28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="23" t="s">
+      <c r="J28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2324,13 +2363,13 @@
       <c r="I29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="23" t="s">
+      <c r="J29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2362,13 +2401,13 @@
       <c r="I30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="23" t="s">
+      <c r="J30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2400,13 +2439,13 @@
       <c r="I31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="23" t="s">
+      <c r="J31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2438,13 +2477,13 @@
       <c r="I32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="J32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2476,13 +2515,13 @@
       <c r="I33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="23" t="s">
+      <c r="J33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2514,13 +2553,13 @@
       <c r="I34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="23" t="s">
+      <c r="J34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2552,9 +2591,9 @@
       <c r="I35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -2584,13 +2623,13 @@
       <c r="I36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="J36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2622,13 +2661,13 @@
       <c r="I37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="23" t="s">
+      <c r="J37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2658,13 +2697,13 @@
       <c r="I38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="23" t="s">
+      <c r="J38" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2696,13 +2735,13 @@
       <c r="I39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="23" t="s">
+      <c r="J39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2734,13 +2773,13 @@
       <c r="I40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" s="23" t="s">
+      <c r="J40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2772,13 +2811,13 @@
       <c r="I41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="23" t="s">
+      <c r="J41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2810,13 +2849,13 @@
       <c r="I42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="23" t="s">
+      <c r="J42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2848,13 +2887,13 @@
       <c r="I43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="23" t="s">
+      <c r="J43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2886,9 +2925,9 @@
       <c r="I44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -2918,13 +2957,13 @@
       <c r="I45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="23" t="s">
+      <c r="J45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2956,11 +2995,11 @@
       <c r="I46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="23" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2992,13 +3031,13 @@
       <c r="I47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="23" t="s">
+      <c r="J47" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3030,13 +3069,13 @@
       <c r="I48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="23" t="s">
+      <c r="K48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3068,13 +3107,13 @@
       <c r="I49" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="23" t="s">
+      <c r="J49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3106,11 +3145,11 @@
       <c r="I50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="J50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
@@ -3140,13 +3179,13 @@
       <c r="I51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="23" t="s">
+      <c r="J51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3178,13 +3217,13 @@
       <c r="I52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="23" t="s">
+      <c r="J52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3216,9 +3255,9 @@
       <c r="I53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -3248,13 +3287,13 @@
       <c r="I54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="23" t="s">
+      <c r="J54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3286,13 +3325,13 @@
       <c r="I55" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="23" t="s">
+      <c r="J55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3324,13 +3363,13 @@
       <c r="I56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="23" t="s">
+      <c r="J56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3362,9 +3401,9 @@
       <c r="I57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -3394,13 +3433,13 @@
       <c r="I58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="23" t="s">
+      <c r="J58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3432,13 +3471,13 @@
       <c r="I59" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="23" t="s">
+      <c r="J59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3470,13 +3509,13 @@
       <c r="I60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="23" t="s">
+      <c r="J60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3506,13 +3545,13 @@
       <c r="I61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="23" t="s">
+      <c r="J61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3544,13 +3583,13 @@
       <c r="I62" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="23" t="s">
+      <c r="J62" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3582,13 +3621,13 @@
       <c r="I63" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="23" t="s">
+      <c r="J63" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3620,13 +3659,13 @@
       <c r="I64" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="23" t="s">
+      <c r="J64" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3658,13 +3697,13 @@
       <c r="I65" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="23" t="s">
+      <c r="J65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3696,13 +3735,13 @@
       <c r="I66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="23" t="s">
+      <c r="J66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3734,13 +3773,13 @@
       <c r="I67" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="23" t="s">
+      <c r="J67" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3772,13 +3811,13 @@
       <c r="I68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="23" t="s">
+      <c r="J68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3810,13 +3849,13 @@
       <c r="I69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="23" t="s">
+      <c r="J69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3848,13 +3887,13 @@
       <c r="I70" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L70" s="23" t="s">
+      <c r="J70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3886,13 +3925,13 @@
       <c r="I71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="24" t="s">
+      <c r="J71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L71" s="23" t="s">
+      <c r="L71" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3924,13 +3963,13 @@
       <c r="I72" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J72" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="23" t="s">
+      <c r="K72" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3962,13 +4001,13 @@
       <c r="I73" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="23" t="s">
+      <c r="J73" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4000,13 +4039,13 @@
       <c r="I74" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74" s="23" t="s">
+      <c r="J74" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4038,13 +4077,13 @@
       <c r="I75" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" s="23" t="s">
+      <c r="J75" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4076,11 +4115,11 @@
       <c r="I76" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="20"/>
-      <c r="K76" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="23" t="s">
+      <c r="J76" s="17"/>
+      <c r="K76" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4112,9 +4151,9 @@
       <c r="I77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
@@ -4142,11 +4181,11 @@
       <c r="I78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
+      <c r="J78" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
     </row>
     <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -4176,13 +4215,13 @@
       <c r="I79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" s="23" t="s">
+      <c r="J79" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4214,13 +4253,13 @@
       <c r="I80" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J80" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" s="23" t="s">
+      <c r="J80" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4252,9 +4291,9 @@
       <c r="I81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
@@ -4284,13 +4323,13 @@
       <c r="I82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="23" t="s">
+      <c r="J82" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4322,11 +4361,11 @@
       <c r="I83" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="20"/>
-      <c r="K83" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="23" t="s">
+      <c r="J83" s="17"/>
+      <c r="K83" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4358,9 +4397,9 @@
       <c r="I84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
     </row>
     <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
@@ -4390,13 +4429,13 @@
       <c r="I85" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="23" t="s">
+      <c r="J85" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4428,13 +4467,13 @@
       <c r="I86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="23" t="s">
+      <c r="J86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4466,13 +4505,13 @@
       <c r="I87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="23" t="s">
+      <c r="J87" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4504,9 +4543,9 @@
       <c r="I88" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
@@ -4536,13 +4575,13 @@
       <c r="I89" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="23" t="s">
+      <c r="J89" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4574,13 +4613,13 @@
       <c r="I90" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J90" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90" s="23" t="s">
+      <c r="J90" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4612,13 +4651,13 @@
       <c r="I91" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="23" t="s">
+      <c r="J91" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4650,13 +4689,13 @@
       <c r="I92" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J92" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L92" s="23" t="s">
+      <c r="J92" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4688,13 +4727,13 @@
       <c r="I93" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J93" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93" s="23" t="s">
+      <c r="J93" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4726,13 +4765,13 @@
       <c r="I94" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="23" t="s">
+      <c r="J94" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4764,13 +4803,13 @@
       <c r="I95" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J95" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95" s="23" t="s">
+      <c r="J95" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4788,9 +4827,9 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
@@ -4818,11 +4857,11 @@
       <c r="I97" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J97" s="20"/>
-      <c r="K97" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="23" t="s">
+      <c r="J97" s="17"/>
+      <c r="K97" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4854,13 +4893,13 @@
       <c r="I98" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J98" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4892,11 +4931,11 @@
       <c r="I99" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="20"/>
-      <c r="L99" s="23" t="s">
+      <c r="J99" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="17"/>
+      <c r="L99" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4928,13 +4967,13 @@
       <c r="I100" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="23" t="s">
+      <c r="J100" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4966,13 +5005,13 @@
       <c r="I101" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K101" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L101" s="22" t="s">
+      <c r="J101" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5004,13 +5043,13 @@
       <c r="I102" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="23" t="s">
+      <c r="J102" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5042,13 +5081,13 @@
       <c r="I103" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J103" s="24" t="s">
+      <c r="J103" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="24" t="s">
+      <c r="K103" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5080,13 +5119,13 @@
       <c r="I104" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="23" t="s">
+      <c r="J104" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5116,13 +5155,13 @@
       <c r="I105" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J105" s="24" t="s">
+      <c r="J105" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="24" t="s">
+      <c r="K105" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="23" t="s">
+      <c r="L105" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5154,13 +5193,13 @@
       <c r="I106" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J106" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="23" t="s">
+      <c r="J106" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5192,13 +5231,13 @@
       <c r="I107" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J107" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="23" t="s">
+      <c r="J107" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5228,11 +5267,11 @@
       <c r="I108" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J108" s="20"/>
-      <c r="K108" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108" s="23" t="s">
+      <c r="J108" s="17"/>
+      <c r="K108" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5264,13 +5303,13 @@
       <c r="I109" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J109" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="23" t="s">
+      <c r="J109" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5302,13 +5341,13 @@
       <c r="I110" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J110" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="23" t="s">
+      <c r="J110" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5340,13 +5379,13 @@
       <c r="I111" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J111" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K111" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="23" t="s">
+      <c r="J111" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5378,13 +5417,13 @@
       <c r="I112" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J112" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L112" s="23" t="s">
+      <c r="J112" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5416,13 +5455,13 @@
       <c r="I113" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J113" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113" s="23" t="s">
+      <c r="J113" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5454,13 +5493,13 @@
       <c r="I114" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J114" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L114" s="23" t="s">
+      <c r="J114" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5492,13 +5531,13 @@
       <c r="I115" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J115" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K115" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L115" s="23" t="s">
+      <c r="J115" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5530,13 +5569,13 @@
       <c r="I116" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K116" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L116" s="23" t="s">
+      <c r="J116" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5568,13 +5607,13 @@
       <c r="I117" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K117" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L117" s="23" t="s">
+      <c r="J117" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5606,13 +5645,13 @@
       <c r="I118" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J118" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118" s="23" t="s">
+      <c r="J118" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5644,13 +5683,13 @@
       <c r="I119" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J119" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K119" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119" s="23" t="s">
+      <c r="J119" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5682,13 +5721,13 @@
       <c r="I120" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J120" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="23" t="s">
+      <c r="J120" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5720,13 +5759,13 @@
       <c r="I121" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J121" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K121" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="23" t="s">
+      <c r="J121" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K121" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L121" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5758,9 +5797,9 @@
       <c r="I122" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="23" t="s">
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5792,13 +5831,13 @@
       <c r="I123" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123" s="23" t="s">
+      <c r="J123" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5828,13 +5867,13 @@
       <c r="I124" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J124" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L124" s="23" t="s">
+      <c r="J124" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5866,13 +5905,13 @@
       <c r="I125" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125" s="23" t="s">
+      <c r="J125" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5904,13 +5943,13 @@
       <c r="I126" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L126" s="23" t="s">
+      <c r="J126" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L126" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5942,13 +5981,13 @@
       <c r="I127" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J127" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K127" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L127" s="23" t="s">
+      <c r="J127" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L127" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5966,9 +6005,9 @@
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
     </row>
     <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
@@ -5998,13 +6037,13 @@
       <c r="I129" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J129" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K129" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L129" s="23" t="s">
+      <c r="J129" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L129" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6036,13 +6075,13 @@
       <c r="I130" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J130" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130" s="23" t="s">
+      <c r="J130" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6074,13 +6113,13 @@
       <c r="I131" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J131" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" s="23" t="s">
+      <c r="J131" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6112,9 +6151,9 @@
       <c r="I132" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
     </row>
     <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="10">
@@ -6144,9 +6183,9 @@
       <c r="I133" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
     </row>
     <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
@@ -6176,13 +6215,13 @@
       <c r="I134" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J134" s="24" t="s">
+      <c r="J134" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K134" s="24" t="s">
+      <c r="K134" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6214,13 +6253,13 @@
       <c r="I135" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J135" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K135" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L135" s="23" t="s">
+      <c r="J135" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6252,13 +6291,13 @@
       <c r="I136" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J136" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K136" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L136" s="20"/>
+      <c r="J136" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="17"/>
     </row>
     <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
@@ -6278,9 +6317,9 @@
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
     </row>
     <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
@@ -6308,13 +6347,13 @@
       <c r="I138" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K138" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138" s="23" t="s">
+      <c r="J138" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K138" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6346,13 +6385,13 @@
       <c r="I139" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="23" t="s">
+      <c r="J139" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6384,13 +6423,13 @@
       <c r="I140" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J140" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K140" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140" s="23" t="s">
+      <c r="J140" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6422,13 +6461,13 @@
       <c r="I141" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J141" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K141" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L141" s="23" t="s">
+      <c r="J141" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6460,13 +6499,13 @@
       <c r="I142" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J142" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K142" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L142" s="23" t="s">
+      <c r="J142" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6498,13 +6537,13 @@
       <c r="I143" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J143" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K143" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L143" s="23" t="s">
+      <c r="J143" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6536,13 +6575,13 @@
       <c r="I144" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J144" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K144" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144" s="23" t="s">
+      <c r="J144" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L144" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6574,13 +6613,13 @@
       <c r="I145" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K145" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L145" s="23" t="s">
+      <c r="J145" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L145" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6610,13 +6649,13 @@
       <c r="I146" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J146" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L146" s="23" t="s">
+      <c r="J146" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L146" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6648,11 +6687,11 @@
       <c r="I147" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J147" s="20"/>
-      <c r="K147" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L147" s="23" t="s">
+      <c r="J147" s="17"/>
+      <c r="K147" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L147" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6684,13 +6723,13 @@
       <c r="I148" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J148" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K148" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L148" s="23" t="s">
+      <c r="J148" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K148" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L148" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6722,13 +6761,13 @@
       <c r="I149" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K149" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L149" s="23" t="s">
+      <c r="J149" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L149" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6760,13 +6799,13 @@
       <c r="I150" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J150" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K150" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L150" s="23" t="s">
+      <c r="J150" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L150" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6798,13 +6837,13 @@
       <c r="I151" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K151" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L151" s="23" t="s">
+      <c r="J151" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L151" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6834,9 +6873,9 @@
       <c r="I152" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
     </row>
     <row r="153" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="10">
@@ -6866,13 +6905,13 @@
       <c r="I153" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J153" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K153" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L153" s="23" t="s">
+      <c r="J153" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L153" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6904,13 +6943,13 @@
       <c r="I154" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J154" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K154" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L154" s="23" t="s">
+      <c r="J154" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L154" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6942,13 +6981,13 @@
       <c r="I155" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J155" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L155" s="23" t="s">
+      <c r="J155" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L155" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6980,13 +7019,13 @@
       <c r="I156" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J156" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K156" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L156" s="23" t="s">
+      <c r="J156" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L156" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7018,13 +7057,13 @@
       <c r="I157" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J157" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K157" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L157" s="23" t="s">
+      <c r="J157" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L157" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7056,13 +7095,13 @@
       <c r="I158" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J158" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K158" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L158" s="23" t="s">
+      <c r="J158" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L158" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7094,13 +7133,13 @@
       <c r="I159" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J159" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K159" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L159" s="23" t="s">
+      <c r="J159" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7132,13 +7171,13 @@
       <c r="I160" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J160" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K160" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L160" s="23" t="s">
+      <c r="J160" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7170,13 +7209,13 @@
       <c r="I161" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J161" s="24" t="s">
+      <c r="J161" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K161" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L161" s="23" t="s">
+      <c r="K161" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7208,13 +7247,13 @@
       <c r="I162" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J162" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K162" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L162" s="23" t="s">
+      <c r="J162" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L162" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7246,13 +7285,13 @@
       <c r="I163" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J163" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K163" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L163" s="23" t="s">
+      <c r="J163" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L163" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7284,13 +7323,13 @@
       <c r="I164" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J164" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L164" s="23" t="s">
+      <c r="J164" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L164" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7322,13 +7361,13 @@
       <c r="I165" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J165" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K165" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L165" s="23" t="s">
+      <c r="J165" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L165" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7358,13 +7397,13 @@
       <c r="I166" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J166" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K166" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L166" s="23" t="s">
+      <c r="J166" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7394,13 +7433,13 @@
       <c r="I167" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J167" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K167" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L167" s="23" t="s">
+      <c r="J167" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L167" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7432,11 +7471,11 @@
       <c r="I168" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J168" s="20"/>
-      <c r="K168" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L168" s="23" t="s">
+      <c r="J168" s="17"/>
+      <c r="K168" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L168" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7468,13 +7507,13 @@
       <c r="I169" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J169" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K169" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L169" s="23" t="s">
+      <c r="J169" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L169" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7506,13 +7545,13 @@
       <c r="I170" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J170" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K170" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L170" s="23" t="s">
+      <c r="J170" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L170" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7544,13 +7583,13 @@
       <c r="I171" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J171" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K171" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L171" s="23" t="s">
+      <c r="J171" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L171" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7582,13 +7621,13 @@
       <c r="I172" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K172" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L172" s="23" t="s">
+      <c r="J172" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K172" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L172" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7620,13 +7659,13 @@
       <c r="I173" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J173" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K173" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L173" s="23" t="s">
+      <c r="J173" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K173" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L173" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7658,13 +7697,13 @@
       <c r="I174" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J174" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K174" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L174" s="23" t="s">
+      <c r="J174" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K174" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L174" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7682,9 +7721,9 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
     </row>
     <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
@@ -7714,13 +7753,13 @@
       <c r="I176" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J176" s="24" t="s">
+      <c r="J176" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K176" s="24" t="s">
+      <c r="K176" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L176" s="22" t="s">
+      <c r="L176" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7752,13 +7791,13 @@
       <c r="I177" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J177" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K177" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L177" s="23" t="s">
+      <c r="J177" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K177" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L177" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7776,13 +7815,13 @@
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
-      <c r="J178" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K178" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L178" s="23" t="s">
+      <c r="J178" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K178" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L178" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7814,13 +7853,13 @@
       <c r="I179" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J179" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K179" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L179" s="23" t="s">
+      <c r="J179" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K179" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L179" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7850,9 +7889,9 @@
       <c r="I180" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
     </row>
     <row r="181" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
@@ -7882,9 +7921,9 @@
       <c r="I181" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
-      <c r="L181" s="20"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
     </row>
     <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
@@ -7914,13 +7953,13 @@
       <c r="I182" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J182" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K182" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L182" s="23" t="s">
+      <c r="J182" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L182" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7952,13 +7991,13 @@
       <c r="I183" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J183" s="24" t="s">
+      <c r="J183" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K183" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L183" s="23" t="s">
+      <c r="K183" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L183" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7990,13 +8029,13 @@
       <c r="I184" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J184" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K184" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L184" s="23" t="s">
+      <c r="J184" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L184" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8028,13 +8067,13 @@
       <c r="I185" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J185" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K185" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L185" s="23" t="s">
+      <c r="J185" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K185" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L185" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8066,13 +8105,13 @@
       <c r="I186" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J186" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K186" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L186" s="23" t="s">
+      <c r="J186" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K186" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L186" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8104,13 +8143,13 @@
       <c r="I187" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J187" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K187" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L187" s="23" t="s">
+      <c r="J187" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K187" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L187" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8142,13 +8181,13 @@
       <c r="I188" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J188" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K188" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L188" s="23" t="s">
+      <c r="J188" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K188" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L188" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8178,13 +8217,13 @@
       <c r="I189" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J189" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K189" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L189" s="23" t="s">
+      <c r="J189" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L189" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8216,9 +8255,9 @@
       <c r="I190" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J190" s="20"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
     </row>
     <row r="191" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
@@ -8248,13 +8287,13 @@
       <c r="I191" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J191" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K191" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L191" s="23" t="s">
+      <c r="J191" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K191" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L191" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8286,13 +8325,13 @@
       <c r="I192" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K192" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L192" s="23" t="s">
+      <c r="J192" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K192" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L192" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8324,13 +8363,13 @@
       <c r="I193" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J193" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K193" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L193" s="23" t="s">
+      <c r="J193" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L193" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8362,13 +8401,13 @@
       <c r="I194" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J194" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K194" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L194" s="23" t="s">
+      <c r="J194" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L194" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8386,9 +8425,9 @@
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
-      <c r="L195" s="23" t="s">
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8420,13 +8459,13 @@
       <c r="I196" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J196" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K196" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L196" s="23" t="s">
+      <c r="J196" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K196" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L196" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8458,13 +8497,13 @@
       <c r="I197" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J197" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K197" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L197" s="22" t="s">
+      <c r="J197" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K197" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L197" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8496,11 +8535,11 @@
       <c r="I198" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J198" s="20"/>
-      <c r="K198" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L198" s="23" t="s">
+      <c r="J198" s="17"/>
+      <c r="K198" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L198" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8532,13 +8571,13 @@
       <c r="I199" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J199" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K199" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L199" s="23" t="s">
+      <c r="J199" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K199" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L199" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8570,13 +8609,13 @@
       <c r="I200" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J200" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K200" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L200" s="23" t="s">
+      <c r="J200" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K200" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L200" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8608,13 +8647,13 @@
       <c r="I201" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J201" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K201" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L201" s="22" t="s">
+      <c r="J201" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L201" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8646,13 +8685,13 @@
       <c r="I202" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J202" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K202" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L202" s="22" t="s">
+      <c r="J202" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K202" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L202" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8684,9 +8723,9 @@
       <c r="I203" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J203" s="20"/>
-      <c r="K203" s="20"/>
-      <c r="L203" s="20"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
     </row>
     <row r="204" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
@@ -8716,13 +8755,13 @@
       <c r="I204" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J204" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K204" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L204" s="23" t="s">
+      <c r="J204" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K204" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L204" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8748,13 +8787,13 @@
       <c r="I205" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J205" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K205" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L205" s="23" t="s">
+      <c r="J205" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K205" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L205" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8786,13 +8825,13 @@
       <c r="I206" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J206" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K206" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L206" s="23" t="s">
+      <c r="J206" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K206" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L206" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8824,13 +8863,13 @@
       <c r="I207" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K207" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L207" s="23" t="s">
+      <c r="J207" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K207" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L207" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8862,13 +8901,13 @@
       <c r="I208" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J208" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K208" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L208" s="23" t="s">
+      <c r="J208" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K208" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L208" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8900,13 +8939,13 @@
       <c r="I209" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K209" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L209" s="23" t="s">
+      <c r="J209" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K209" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L209" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8936,13 +8975,13 @@
       <c r="I210" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K210" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L210" s="23" t="s">
+      <c r="J210" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L210" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8974,13 +9013,13 @@
       <c r="I211" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K211" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L211" s="23" t="s">
+      <c r="J211" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L211" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9012,13 +9051,13 @@
       <c r="I212" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J212" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K212" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L212" s="23" t="s">
+      <c r="J212" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K212" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L212" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9050,13 +9089,13 @@
       <c r="I213" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K213" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L213" s="23" t="s">
+      <c r="J213" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K213" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L213" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9088,13 +9127,13 @@
       <c r="I214" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K214" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L214" s="23" t="s">
+      <c r="J214" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K214" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L214" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9126,13 +9165,13 @@
       <c r="I215" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J215" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K215" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L215" s="23" t="s">
+      <c r="J215" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K215" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L215" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9164,11 +9203,11 @@
       <c r="I216" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J216" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K216" s="20"/>
-      <c r="L216" s="23" t="s">
+      <c r="J216" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K216" s="17"/>
+      <c r="L216" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9200,13 +9239,13 @@
       <c r="I217" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K217" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L217" s="23" t="s">
+      <c r="J217" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K217" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L217" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9238,9 +9277,9 @@
       <c r="I218" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J218" s="20"/>
-      <c r="K218" s="20"/>
-      <c r="L218" s="20"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
     </row>
     <row r="219" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="10">
@@ -9270,13 +9309,13 @@
       <c r="I219" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J219" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K219" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L219" s="22" t="s">
+      <c r="J219" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K219" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L219" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9308,11 +9347,11 @@
       <c r="I220" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="20"/>
-      <c r="K220" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L220" s="23" t="s">
+      <c r="J220" s="17"/>
+      <c r="K220" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L220" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9344,11 +9383,11 @@
       <c r="I221" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J221" s="20"/>
-      <c r="K221" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L221" s="22" t="s">
+      <c r="J221" s="17"/>
+      <c r="K221" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L221" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9378,13 +9417,13 @@
         <v>17</v>
       </c>
       <c r="I222" s="12"/>
-      <c r="J222" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K222" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L222" s="23" t="s">
+      <c r="J222" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K222" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L222" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9416,13 +9455,13 @@
       <c r="I223" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J223" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K223" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L223" s="23" t="s">
+      <c r="J223" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K223" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L223" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9454,13 +9493,13 @@
       <c r="I224" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J224" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K224" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L224" s="23" t="s">
+      <c r="J224" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K224" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L224" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9492,13 +9531,13 @@
       <c r="I225" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J225" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K225" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L225" s="22" t="s">
+      <c r="J225" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K225" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L225" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9530,13 +9569,13 @@
       <c r="I226" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J226" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K226" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L226" s="23" t="s">
+      <c r="J226" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K226" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L226" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9554,13 +9593,13 @@
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
-      <c r="J227" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K227" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L227" s="20"/>
+      <c r="J227" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K227" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L227" s="17"/>
     </row>
     <row r="228" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10">
@@ -9590,13 +9629,13 @@
       <c r="I228" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J228" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K228" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L228" s="22" t="s">
+      <c r="J228" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K228" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L228" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9628,13 +9667,13 @@
       <c r="I229" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K229" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L229" s="23" t="s">
+      <c r="J229" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K229" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L229" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9666,13 +9705,13 @@
       <c r="I230" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K230" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L230" s="20"/>
+      <c r="J230" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K230" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L230" s="17"/>
     </row>
     <row r="231" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10">
@@ -9702,13 +9741,13 @@
       <c r="I231" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K231" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L231" s="22" t="s">
+      <c r="J231" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K231" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L231" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9740,13 +9779,13 @@
       <c r="I232" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K232" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L232" s="22" t="s">
+      <c r="J232" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K232" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L232" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9778,13 +9817,13 @@
       <c r="I233" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J233" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K233" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L233" s="24" t="s">
+      <c r="J233" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K233" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L233" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9816,11 +9855,11 @@
       <c r="I234" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="20"/>
-      <c r="K234" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L234" s="22" t="s">
+      <c r="J234" s="17"/>
+      <c r="K234" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L234" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9852,13 +9891,13 @@
       <c r="I235" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K235" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L235" s="23" t="s">
+      <c r="J235" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K235" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L235" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9890,13 +9929,13 @@
       <c r="I236" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J236" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K236" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L236" s="22" t="s">
+      <c r="J236" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K236" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L236" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9926,13 +9965,13 @@
       <c r="I237" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K237" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L237" s="23" t="s">
+      <c r="J237" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K237" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L237" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9964,13 +10003,13 @@
       <c r="I238" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K238" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L238" s="22" t="s">
+      <c r="J238" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K238" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L238" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10002,13 +10041,13 @@
       <c r="I239" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K239" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L239" s="22" t="s">
+      <c r="J239" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K239" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L239" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10040,13 +10079,13 @@
       <c r="I240" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J240" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K240" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L240" s="23" t="s">
+      <c r="J240" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K240" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L240" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10078,13 +10117,13 @@
       <c r="I241" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K241" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L241" s="23" t="s">
+      <c r="J241" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K241" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L241" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10116,11 +10155,11 @@
       <c r="I242" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="20"/>
-      <c r="K242" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L242" s="22" t="s">
+      <c r="J242" s="17"/>
+      <c r="K242" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L242" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10152,13 +10191,13 @@
       <c r="I243" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K243" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L243" s="23" t="s">
+      <c r="J243" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K243" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L243" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10190,13 +10229,13 @@
       <c r="I244" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J244" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K244" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L244" s="22" t="s">
+      <c r="J244" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K244" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L244" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10228,13 +10267,13 @@
       <c r="I245" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J245" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K245" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L245" s="23" t="s">
+      <c r="J245" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K245" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L245" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10266,13 +10305,13 @@
       <c r="I246" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K246" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L246" s="23" t="s">
+      <c r="J246" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K246" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L246" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10290,9 +10329,9 @@
       <c r="G247" s="12"/>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
-      <c r="J247" s="20"/>
-      <c r="K247" s="20"/>
-      <c r="L247" s="20"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
     </row>
     <row r="248" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
@@ -10322,13 +10361,13 @@
       <c r="I248" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J248" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K248" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L248" s="23" t="s">
+      <c r="J248" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K248" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L248" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10360,13 +10399,13 @@
       <c r="I249" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J249" s="24" t="s">
+      <c r="J249" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K249" s="24" t="s">
+      <c r="K249" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L249" s="24" t="s">
+      <c r="L249" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10398,13 +10437,13 @@
       <c r="I250" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J250" s="24" t="s">
+      <c r="J250" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K250" s="24" t="s">
+      <c r="K250" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L250" s="24" t="s">
+      <c r="L250" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10436,13 +10475,13 @@
       <c r="I251" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J251" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K251" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L251" s="23" t="s">
+      <c r="J251" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K251" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L251" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10460,13 +10499,13 @@
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
       <c r="I252" s="12"/>
-      <c r="J252" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K252" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L252" s="23" t="s">
+      <c r="J252" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K252" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L252" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10480,9 +10519,9 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
-      <c r="J253" s="20"/>
-      <c r="K253" s="20"/>
-      <c r="L253" s="20"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
     </row>
     <row r="254" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
@@ -10494,26 +10533,46 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
-      <c r="J254" s="25"/>
-      <c r="K254" s="25"/>
-      <c r="L254" s="25"/>
+      <c r="J254" s="22"/>
+      <c r="K254" s="22"/>
+      <c r="L254" s="22"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="25"/>
-      <c r="K255" s="25"/>
-      <c r="L255" s="25"/>
+      <c r="C255" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E255" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F255" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G255" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H255" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I255" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J255" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K255" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L255" s="30" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="256" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="26" t="s">
         <v>266</v>
       </c>
       <c r="B256" s="14" t="s">
@@ -10551,7 +10610,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="18"/>
+      <c r="A257" s="27"/>
       <c r="B257" s="14" t="s">
         <v>17</v>
       </c>
@@ -10576,18 +10635,18 @@
       <c r="I257" s="16">
         <v>37</v>
       </c>
-      <c r="J257" s="25">
+      <c r="J257" s="22">
         <v>82</v>
       </c>
-      <c r="K257" s="25">
+      <c r="K257" s="22">
         <v>31</v>
       </c>
-      <c r="L257" s="25">
+      <c r="L257" s="22">
         <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="19"/>
+      <c r="A258" s="28"/>
       <c r="B258" s="14" t="s">
         <v>28</v>
       </c>
@@ -10612,13 +10671,13 @@
       <c r="I258" s="16">
         <v>11</v>
       </c>
-      <c r="J258" s="25">
+      <c r="J258" s="22">
         <v>11</v>
       </c>
-      <c r="K258" s="25">
+      <c r="K258" s="22">
         <v>7</v>
       </c>
-      <c r="L258" s="25">
+      <c r="L258" s="22">
         <v>4</v>
       </c>
     </row>
@@ -10632,9 +10691,9 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
-      <c r="J259" s="20"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
     </row>
     <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
@@ -10646,9 +10705,9 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
-      <c r="J260" s="20"/>
-      <c r="K260" s="20"/>
-      <c r="L260" s="20"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
     </row>
     <row r="261" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
@@ -10660,9 +10719,9 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
-      <c r="J261" s="20"/>
-      <c r="K261" s="20"/>
-      <c r="L261" s="20"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
     </row>
     <row r="262" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
@@ -10674,9 +10733,9 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-      <c r="J262" s="20"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17"/>
     </row>
     <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
@@ -10688,9 +10747,9 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
-      <c r="J263" s="20"/>
-      <c r="K263" s="20"/>
-      <c r="L263" s="20"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
     </row>
     <row r="264" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
@@ -10702,9 +10761,9 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
-      <c r="L264" s="20"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="17"/>
+      <c r="L264" s="17"/>
     </row>
     <row r="265" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
@@ -10716,9 +10775,9 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
-      <c r="L265" s="20"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
     </row>
     <row r="266" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
@@ -10730,9 +10789,9 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
-      <c r="J266" s="20"/>
-      <c r="K266" s="20"/>
-      <c r="L266" s="20"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
     </row>
     <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
@@ -10744,9 +10803,9 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
-      <c r="J267" s="20"/>
-      <c r="K267" s="20"/>
-      <c r="L267" s="20"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
@@ -10758,9 +10817,9 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
-      <c r="J268" s="20"/>
-      <c r="K268" s="20"/>
-      <c r="L268" s="20"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
     </row>
     <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
@@ -10772,9 +10831,9 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
-      <c r="J269" s="20"/>
-      <c r="K269" s="20"/>
-      <c r="L269" s="20"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
     </row>
     <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
@@ -10786,9 +10845,9 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
-      <c r="J270" s="20"/>
-      <c r="K270" s="20"/>
-      <c r="L270" s="20"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
     </row>
     <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
@@ -10800,9 +10859,9 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
-      <c r="J271" s="20"/>
-      <c r="K271" s="20"/>
-      <c r="L271" s="20"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="17"/>
+      <c r="L271" s="17"/>
     </row>
     <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
@@ -10814,9 +10873,9 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="20"/>
-      <c r="K272" s="20"/>
-      <c r="L272" s="20"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
     </row>
     <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
@@ -18797,7 +18856,18 @@
   <mergeCells count="1">
     <mergeCell ref="A256:A258"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:I997">
+  <conditionalFormatting sqref="A1:I254 A256:I997 A255:B255">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Abstain"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255:I255">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
